--- a/model_results/abalone_medoids.xlsx
+++ b/model_results/abalone_medoids.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zackhorton/Documents/MIT/15.095_Machine_Learning/Project/ML-Project/model_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06554823-3BD4-A243-8FEE-EA2638311F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F509CBF5-F584-6345-B8C6-2161EBAE31CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{413EF188-EB09-1946-B9FA-C270031A1BC7}"/>
   </bookViews>
@@ -97,7 +97,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -145,10 +145,10 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -160,7 +160,7 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -479,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5186454D-129D-5849-8DFE-08D8A58B5D85}">
   <dimension ref="A1:K325"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="E114" sqref="E114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/model_results/abalone_medoids.xlsx
+++ b/model_results/abalone_medoids.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zackhorton/Documents/MIT/15.095_Machine_Learning/Project/ML-Project/model_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F509CBF5-F584-6345-B8C6-2161EBAE31CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E641CED4-67F2-6B40-9BD0-B29DF6935DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{413EF188-EB09-1946-B9FA-C270031A1BC7}"/>
   </bookViews>
@@ -480,7 +480,7 @@
   <dimension ref="A1:K325"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="E114" sqref="E114"/>
+      <selection activeCell="F108" sqref="F108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
